--- a/api/messages.xlsx
+++ b/api/messages.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -515,9 +515,23 @@
         <v>سييش</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>['\</v>
+      </c>
+      <c r="B9" t="str">
+        <v>mazen01011771146@gmail.com</v>
+      </c>
+      <c r="C9" t="str">
+        <v>l;lk;</v>
+      </c>
+      <c r="D9" t="str">
+        <v>lk;kl;</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/api/messages.xlsx
+++ b/api/messages.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -529,9 +529,65 @@
         <v>lk;kl;</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Mazen Ibrahim</v>
+      </c>
+      <c r="B10" t="str">
+        <v>mazen01011771146@gmail.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>xfgdfhgg</v>
+      </c>
+      <c r="D10" t="str">
+        <v>hgfhgfh</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Mazen Ibrahim</v>
+      </c>
+      <c r="B11" t="str">
+        <v>mazen01011771146@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>lksHDKJSHDF</v>
+      </c>
+      <c r="D11" t="str">
+        <v>MNBDSMNDSDLKJS;N</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Mazen Ibrahim</v>
+      </c>
+      <c r="B12" t="str">
+        <v>mazen01011771146@gmail.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>lksHDKJSHDF</v>
+      </c>
+      <c r="D12" t="str">
+        <v>MNBDSMNDSDLKJS;N</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Mazen Ibrahim</v>
+      </c>
+      <c r="B13" t="str">
+        <v>mazen01011771146@gmail.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>ةمنتة</v>
+      </c>
+      <c r="D13" t="str">
+        <v>هلاا</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
   </ignoredErrors>
 </worksheet>
 </file>